--- a/biology/Botanique/Chichoumeille/Chichoumeille.xlsx
+++ b/biology/Botanique/Chichoumeille/Chichoumeille.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-La chichoumeille (ou chichoumée[1] ou encore chichoumé[2]) est une spécialité culinaire languedocienne ressemblant à la bohémienne. C'est une préparation culinaire à base d'aubergines, d'oignons et de tomates, à l'image des ristes provençales ou bien de la ratatouille quand on y rajoute des courgettes.
+La chichoumeille (ou chichoumée ou encore chichoumé) est une spécialité culinaire languedocienne ressemblant à la bohémienne. C'est une préparation culinaire à base d'aubergines, d'oignons et de tomates, à l'image des ristes provençales ou bien de la ratatouille quand on y rajoute des courgettes.
 </t>
         </is>
       </c>
@@ -512,9 +524,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">« Chauchimèia, donné comme forme principale ou centrale par Mistral, suivi par Ubaud (avec pour variantes secondaires chichimèia et chichomèia), signifie en premier lieu ripopée, salmigondis (Mistral) ; Cantalausa (originaire de Bédarieux [nord de l'Hérault] et ayant vécu longtemps dans l'Aveyron) ne donne que chichomèia, qu'il définit comme mescladissa de mangiscas o de vins, mélange grossier de nourriture ou de vins (sorte de “tambouille”, donc) ; J.-F. Brun, Glossari occitan-francés segon lo lengadocian idiomatic parlat et escrich a Montpelhièr, à l'entrée “Chichomèia”, donne le sens général et précise ratatouille (plat local)[3]. »
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">« Chauchimèia, donné comme forme principale ou centrale par Mistral, suivi par Ubaud (avec pour variantes secondaires chichimèia et chichomèia), signifie en premier lieu ripopée, salmigondis (Mistral) ; Cantalausa (originaire de Bédarieux [nord de l'Hérault] et ayant vécu longtemps dans l'Aveyron) ne donne que chichomèia, qu'il définit comme mescladissa de mangiscas o de vins, mélange grossier de nourriture ou de vins (sorte de “tambouille”, donc) ; J.-F. Brun, Glossari occitan-francés segon lo lengadocian idiomatic parlat et escrich a Montpelhièr, à l'entrée “Chichomèia”, donne le sens général et précise ratatouille (plat local). »
 </t>
         </is>
       </c>
@@ -543,9 +557,11 @@
           <t>Ingrédients</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets nécessite des aubergines, de l'oignon, une gousse d'ail, des tomates, un bouquet garni, du sel, du poivre et de l'huile d’olive[4].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets nécessite des aubergines, de l'oignon, une gousse d'ail, des tomates, un bouquet garni, du sel, du poivre et de l'huile d’olive.
 </t>
         </is>
       </c>
@@ -574,9 +590,11 @@
           <t>Préparation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle est simple. Il suffit de « couper les aubergines en petites lanières, les faire sauter. Pendant ce temps couper les oignons et les tomates. Enlever les aubergines, faire fondre les oignons, quand ils sont transparents, mettre les tomates, rajouter les aubergines, les gousses d'ail et le thym. Laisser mijoter à feu doux. Quand ça a réduit et que tout est mélangé, c'est cuit[5] ».
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle est simple. Il suffit de « couper les aubergines en petites lanières, les faire sauter. Pendant ce temps couper les oignons et les tomates. Enlever les aubergines, faire fondre les oignons, quand ils sont transparents, mettre les tomates, rajouter les aubergines, les gousses d'ail et le thym. Laisser mijoter à feu doux. Quand ça a réduit et que tout est mélangé, c'est cuit ».
 </t>
         </is>
       </c>
@@ -605,9 +623,11 @@
           <t>Accord mets / vin</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce mets, lorsqu'il est servi avec des vins, appelle un rosé comme un gaillac, un saint-saturnin, un marcillac, un vacqueyras ou un faugères[6].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce mets, lorsqu'il est servi avec des vins, appelle un rosé comme un gaillac, un saint-saturnin, un marcillac, un vacqueyras ou un faugères.
 </t>
         </is>
       </c>
@@ -636,9 +656,11 @@
           <t>Variantes</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Outre la ratatouille et la bohémienne, d’autres pays proches de la Méditerranée préparent aussi le même type de recette. Le plat catalan samfaina, le majorquin tombet sont d'autres versions du même plat[7]. La version maltaise s’appelle kapunata ; très similaire à la recette française, elle accompagne les poissons grillés. Dans la cuisine italienne, elle se nomme peperonata si elle contient des poivrons ou la variante sicilienne appelée caponata, en espagnol pisto, en hongrois lecsó (en), en bulgare et roumain ghiveci, en grec briami, mais en incluant des pommes de terre.
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Outre la ratatouille et la bohémienne, d’autres pays proches de la Méditerranée préparent aussi le même type de recette. Le plat catalan samfaina, le majorquin tombet sont d'autres versions du même plat. La version maltaise s’appelle kapunata ; très similaire à la recette française, elle accompagne les poissons grillés. Dans la cuisine italienne, elle se nomme peperonata si elle contient des poivrons ou la variante sicilienne appelée caponata, en espagnol pisto, en hongrois lecsó (en), en bulgare et roumain ghiveci, en grec briami, mais en incluant des pommes de terre.
 </t>
         </is>
       </c>
